--- a/distribuida/conversor/desempenhoTempoExecucao_ex06.xlsx
+++ b/distribuida/conversor/desempenhoTempoExecucao_ex06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8712cc4d8bcc5936/VS Projects/GoPCD/distribuida/conversor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:40009_{2E2FECC8-6A0A-45AF-969D-4CAD4D8D71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB6C4887-3851-4AB4-AC8E-BCBF4ED7EBE6}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="13_ncr:40009_{2E2FECC8-6A0A-45AF-969D-4CAD4D8D71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E69A1A9-E8D5-4DAE-B97F-10EEFC33487B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="desempenhoMQTT_RABITT" sheetId="4" r:id="rId1"/>
@@ -1692,7 +1692,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>AMQTT - Abordagens de Implementação</a:t>
+              <a:t>MQTT - Abordagens de Implementação</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9483,7 +9483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CDF0EC-E824-4AF6-BA6B-574B0B712E71}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -12135,8 +12135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD380"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
